--- a/PCB/BOM_Rev1.1.xlsx
+++ b/PCB/BOM_Rev1.1.xlsx
@@ -5,27 +5,27 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Dropbox\Arduino_PCB\Custom Boards\Vincent\1.54_inch_tft\Project Outputs for ezDisplay2_Rev1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Git\ESP32_eZ_Display_2\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F217649-9963-41C2-9C31-0405D0662119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962FC58D-F85C-4230-8AF9-270A7CC0EAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="22530" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21864" yWindow="1176" windowWidth="20760" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM_Rev1.1xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM_Rev1.1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">BOM_Rev1.1xlsx!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">BOM_Rev1.1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="197">
   <si>
     <t>Designator</t>
   </si>
@@ -45,7 +45,10 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Part_Number</t>
+    <t>LCSC_Part_Number</t>
+  </si>
+  <si>
+    <t>Man_Part_Number</t>
   </si>
   <si>
     <t>A1</t>
@@ -66,6 +69,9 @@
     <t>C99665</t>
   </si>
   <si>
+    <t>AN9520-245</t>
+  </si>
+  <si>
     <t>C1, C4, C6, C10, C12</t>
   </si>
   <si>
@@ -78,9 +84,6 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>C344190</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -93,9 +96,6 @@
     <t>1.5pF</t>
   </si>
   <si>
-    <t>C147344</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
@@ -111,6 +111,9 @@
     <t>C83063</t>
   </si>
   <si>
+    <t>0402X105K160CT</t>
+  </si>
+  <si>
     <t>C5</t>
   </si>
   <si>
@@ -123,9 +126,6 @@
     <t>100uF</t>
   </si>
   <si>
-    <t>C87164</t>
-  </si>
-  <si>
     <t>C7, C8, C9, C11</t>
   </si>
   <si>
@@ -138,9 +138,6 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>C307520</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
     <t>C74338</t>
   </si>
   <si>
+    <t>16-213/GHC-YR1S1/3T</t>
+  </si>
+  <si>
     <t>D3</t>
   </si>
   <si>
@@ -180,9 +180,6 @@
     <t>Red Led</t>
   </si>
   <si>
-    <t>C364556</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
@@ -198,12 +195,12 @@
     <t>C158099</t>
   </si>
   <si>
+    <t>FC-B1010RGBT-HG</t>
+  </si>
+  <si>
     <t>F1</t>
   </si>
   <si>
-    <t>PTC FUSE 500mA hold, 1A trip 0805 SMD</t>
-  </si>
-  <si>
     <t>TLC</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
     <t>C165948</t>
   </si>
   <si>
+    <t>TYPE-C-31-M-12</t>
+  </si>
+  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -240,9 +240,6 @@
     <t>BC847S</t>
   </si>
   <si>
-    <t>C148112</t>
-  </si>
-  <si>
     <t>Q2</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>Mosfet P-CH</t>
   </si>
   <si>
-    <t>C75469</t>
-  </si>
-  <si>
     <t>Q3</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
     <t>MMST3904</t>
   </si>
   <si>
-    <t>C54879</t>
-  </si>
-  <si>
     <t>Q4</t>
   </si>
   <si>
@@ -282,9 +273,6 @@
     <t>FS8205A</t>
   </si>
   <si>
-    <t>C16052</t>
-  </si>
-  <si>
     <t>R1, R2, R3, R6, R7, R8, R9, R13, R14, R17</t>
   </si>
   <si>
@@ -300,6 +288,9 @@
     <t>C258091</t>
   </si>
   <si>
+    <t>RC-02W1002FT</t>
+  </si>
+  <si>
     <t>R4, R5</t>
   </si>
   <si>
@@ -315,6 +306,9 @@
     <t>C100291</t>
   </si>
   <si>
+    <t>CR0402FF2001G</t>
+  </si>
+  <si>
     <t>R10, R11</t>
   </si>
   <si>
@@ -330,6 +324,9 @@
     <t>C325521</t>
   </si>
   <si>
+    <t>RMC04025.1K1%N</t>
+  </si>
+  <si>
     <t>R12</t>
   </si>
   <si>
@@ -345,6 +342,9 @@
     <t>C25092</t>
   </si>
   <si>
+    <t>0402WGF220JTCE</t>
+  </si>
+  <si>
     <t>R15, R22, R23, R24, R25</t>
   </si>
   <si>
@@ -360,6 +360,9 @@
     <t>C106235</t>
   </si>
   <si>
+    <t>RC0402FR-071KL</t>
+  </si>
+  <si>
     <t>R16</t>
   </si>
   <si>
@@ -375,6 +378,9 @@
     <t>C25741</t>
   </si>
   <si>
+    <t>0402WGF1003TCE</t>
+  </si>
+  <si>
     <t>R18</t>
   </si>
   <si>
@@ -387,6 +393,9 @@
     <t>C100310</t>
   </si>
   <si>
+    <t>CR0402FF2202G</t>
+  </si>
+  <si>
     <t>R19</t>
   </si>
   <si>
@@ -399,6 +408,9 @@
     <t>C106232</t>
   </si>
   <si>
+    <t>RC0402FR-07100RL</t>
+  </si>
+  <si>
     <t>R20</t>
   </si>
   <si>
@@ -411,6 +423,9 @@
     <t>C100139</t>
   </si>
   <si>
+    <t>CR0201FH4701G</t>
+  </si>
+  <si>
     <t>R21</t>
   </si>
   <si>
@@ -423,6 +438,9 @@
     <t>C8329</t>
   </si>
   <si>
+    <t>0402WGF4302TCE</t>
+  </si>
+  <si>
     <t>R26</t>
   </si>
   <si>
@@ -435,6 +453,9 @@
     <t>C25790</t>
   </si>
   <si>
+    <t>0402WGF4703TCE</t>
+  </si>
+  <si>
     <t>R27</t>
   </si>
   <si>
@@ -447,6 +468,9 @@
     <t>C4131</t>
   </si>
   <si>
+    <t>0402WGF6803TCE</t>
+  </si>
+  <si>
     <t>S1, S2, S4, S5</t>
   </si>
   <si>
@@ -459,9 +483,6 @@
     <t>Button R/A</t>
   </si>
   <si>
-    <t>C319377</t>
-  </si>
-  <si>
     <t>S3</t>
   </si>
   <si>
@@ -474,9 +495,6 @@
     <t>SWITCH SLIDE</t>
   </si>
   <si>
-    <t>C128955</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -507,6 +525,9 @@
     <t>C47742</t>
   </si>
   <si>
+    <t>CP2104-F03-GMR</t>
+  </si>
+  <si>
     <t>U3</t>
   </si>
   <si>
@@ -537,6 +558,9 @@
     <t>C82227</t>
   </si>
   <si>
+    <t>HDC1080DMBR</t>
+  </si>
+  <si>
     <t>U5</t>
   </si>
   <si>
@@ -549,9 +573,6 @@
     <t>HT7833</t>
   </si>
   <si>
-    <t>C164106</t>
-  </si>
-  <si>
     <t>U6</t>
   </si>
   <si>
@@ -564,9 +585,6 @@
     <t>SL4054ST25P</t>
   </si>
   <si>
-    <t>C258510</t>
-  </si>
-  <si>
     <t>U7</t>
   </si>
   <si>
@@ -595,16 +613,24 @@
   </si>
   <si>
     <t>ER-TFT1.54-1</t>
+  </si>
+  <si>
+    <t>PTC FUSE 500mA hold, 1A trip 0805</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -712,15 +738,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -730,6 +755,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,124 +1073,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.06640625" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" customWidth="1"/>
-    <col min="3" max="3" width="10.86328125" customWidth="1"/>
-    <col min="4" max="4" width="35.86328125" customWidth="1"/>
-    <col min="5" max="5" width="18.59765625" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" customWidth="1"/>
-    <col min="7" max="7" width="12.86328125" customWidth="1"/>
+    <col min="1" max="1" width="24.46484375" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="32.73046875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" customWidth="1"/>
+    <col min="7" max="7" width="16.86328125" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8">
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>24</v>
@@ -1175,39 +1209,41 @@
       <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>34</v>
@@ -1218,157 +1254,170 @@
       <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>68</v>
@@ -1379,180 +1428,188 @@
       <c r="F14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="F17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="B18" s="9">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="G18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="8">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="F19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="8">
+      <c r="G19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="9">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+      <c r="E20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="8">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="8">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>107</v>
@@ -1566,401 +1623,443 @@
       <c r="G22" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="H22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="8">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="9">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="8">
+      <c r="H23" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="9">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="8">
+        <v>121</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="9">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="8">
+        <v>126</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="9">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="8">
+        <v>131</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="9">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="8">
+        <v>136</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="9">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="8">
+        <v>141</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="9">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="8">
+        <v>146</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="9">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" s="8">
+        <v>151</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="9">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="8">
+        <v>155</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="9">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" s="8">
+        <v>160</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="9">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="8">
+        <v>165</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="9">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B35" s="8">
+        <v>171</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="9">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" s="8">
+        <v>176</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="9">
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="8">
+        <v>181</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="9">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B38" s="8">
+        <v>185</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="9">
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B39" s="8">
+        <v>190</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="9">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>189</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/PCB/BOM_Rev1.1.xlsx
+++ b/PCB/BOM_Rev1.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Git\ESP32_eZ_Display_2\PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrankin\Dropbox\Arduino_PCB\Custom Boards\Vincent\1.54_inch_tft\Project Outputs for ezDisplay2_Rev1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962FC58D-F85C-4230-8AF9-270A7CC0EAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F15DFE7-EFA0-43ED-8974-F2AD8A276FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21864" yWindow="1176" windowWidth="20760" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59205" yWindow="420" windowWidth="21600" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Rev1.1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="224">
   <si>
     <t>Designator</t>
   </si>
@@ -84,6 +84,12 @@
     <t>0.1uF</t>
   </si>
   <si>
+    <t>C344190</t>
+  </si>
+  <si>
+    <t>TCC0402X5R104M160AT</t>
+  </si>
+  <si>
     <t>C2</t>
   </si>
   <si>
@@ -96,6 +102,12 @@
     <t>1.5pF</t>
   </si>
   <si>
+    <t>C147344</t>
+  </si>
+  <si>
+    <t>C1005NP0159CGTS</t>
+  </si>
+  <si>
     <t>C3</t>
   </si>
   <si>
@@ -126,6 +138,12 @@
     <t>100uF</t>
   </si>
   <si>
+    <t>C87164</t>
+  </si>
+  <si>
+    <t>JMK316BJ107ML-T</t>
+  </si>
+  <si>
     <t>C7, C8, C9, C11</t>
   </si>
   <si>
@@ -138,6 +156,12 @@
     <t>10uF</t>
   </si>
   <si>
+    <t>C307520</t>
+  </si>
+  <si>
+    <t>[NoValue], CL21A106KOQNNNG</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -180,6 +204,12 @@
     <t>Red Led</t>
   </si>
   <si>
+    <t>C364556</t>
+  </si>
+  <si>
+    <t>LTST-C281KRKT</t>
+  </si>
+  <si>
     <t>D4</t>
   </si>
   <si>
@@ -228,6 +258,21 @@
     <t>TYPE-C-31-M-12</t>
   </si>
   <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>MIcro CONN 2POS 1.0MM SMT R/A</t>
+  </si>
+  <si>
+    <t>JUSHUO</t>
+  </si>
+  <si>
+    <t>C395299</t>
+  </si>
+  <si>
+    <t>AFC10-S02QCC-00</t>
+  </si>
+  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -240,6 +285,9 @@
     <t>BC847S</t>
   </si>
   <si>
+    <t>C148112</t>
+  </si>
+  <si>
     <t>Q2</t>
   </si>
   <si>
@@ -252,6 +300,12 @@
     <t>Mosfet P-CH</t>
   </si>
   <si>
+    <t>C75469</t>
+  </si>
+  <si>
+    <t>FDN340P</t>
+  </si>
+  <si>
     <t>Q3</t>
   </si>
   <si>
@@ -261,6 +315,9 @@
     <t>MMST3904</t>
   </si>
   <si>
+    <t>C54879</t>
+  </si>
+  <si>
     <t>Q4</t>
   </si>
   <si>
@@ -273,6 +330,9 @@
     <t>FS8205A</t>
   </si>
   <si>
+    <t>C16052</t>
+  </si>
+  <si>
     <t>R1, R2, R3, R6, R7, R8, R9, R13, R14, R17</t>
   </si>
   <si>
@@ -483,6 +543,12 @@
     <t>Button R/A</t>
   </si>
   <si>
+    <t>C319377</t>
+  </si>
+  <si>
+    <t>1TS002G-2300-3500-CT</t>
+  </si>
+  <si>
     <t>S3</t>
   </si>
   <si>
@@ -495,12 +561,15 @@
     <t>SWITCH SLIDE</t>
   </si>
   <si>
+    <t>C128955</t>
+  </si>
+  <si>
+    <t>K3-1296S-E1</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
-    <t>RF Transceiver ICs QFN-48_7x7x05P RoHS</t>
-  </si>
-  <si>
     <t>Espressif</t>
   </si>
   <si>
@@ -573,6 +642,9 @@
     <t>HT7833</t>
   </si>
   <si>
+    <t>C164106</t>
+  </si>
+  <si>
     <t>U6</t>
   </si>
   <si>
@@ -585,6 +657,9 @@
     <t>SL4054ST25P</t>
   </si>
   <si>
+    <t>C258510</t>
+  </si>
+  <si>
     <t>U7</t>
   </si>
   <si>
@@ -616,6 +691,12 @@
   </si>
   <si>
     <t>PTC FUSE 500mA hold, 1A trip 0805</t>
+  </si>
+  <si>
+    <t>RF Transceiver ICs QFN-48_7x7x05P</t>
+  </si>
+  <si>
+    <t>Need to verify</t>
   </si>
 </sst>
 </file>
@@ -628,12 +709,13 @@
       <name val="Tahoma"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,11 +731,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -738,27 +841,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,993 +1187,1069 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.46484375" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="32.73046875" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" customWidth="1"/>
-    <col min="7" max="7" width="16.86328125" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="10.9375" customWidth="1"/>
+    <col min="4" max="4" width="36.6875" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="31.875" customWidth="1"/>
+    <col min="7" max="7" width="16.5625" customWidth="1"/>
+    <col min="8" max="8" width="28.8125" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="11">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="F5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="1" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="H8" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="1" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="E10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="9" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="12">
+        <v>10</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="11">
+        <v>5</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A26" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A29" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A30" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A31" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="11">
+        <v>4</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A32" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A33" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="11">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A34" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A35" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="11">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A36" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="11">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="9">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="9">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="9">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="9">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="9">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="9">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="9">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="9">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="9">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="9">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="9">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="9">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="9">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="9">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B33" s="9">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="9">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B35" s="9">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" s="9">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B37" s="9">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B38" s="9">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39" s="9">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="10"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="10"/>
+      <c r="E36" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A37" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A38" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="11">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A39" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="11">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" s="11">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>220</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2069,7 +2259,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2081,7 +2271,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
